--- a/阿里云服务器搭建/自己的服务器.xlsx
+++ b/阿里云服务器搭建/自己的服务器.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>阿里云服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018年日语目标N3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年英语托业800分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期/时间戳工具类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,10 +89,6 @@
   </si>
   <si>
     <t>sql的优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标日中级上下册学完</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,20 +544,13 @@
       <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -633,92 +614,92 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/阿里云服务器搭建/自己的服务器.xlsx
+++ b/阿里云服务器搭建/自己的服务器.xlsx
@@ -1,173 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>2018年Java目标</t>
+  </si>
   <si>
     <t>阿里云服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装jdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>跑起一个项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买一个域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设计一个博客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搭建一个分布式服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装solr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录加密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安装oracle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年Java目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期/时间戳工具类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字符串工具类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据需求编写两个大的接口文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>会配vpn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sql的优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Springboot+springcloud架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>订单接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发短信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>爬虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>negix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vim常用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>linux常用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>java规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>trello使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>coding/git分配权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口文档中的前端需要传什么东西到后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt使用和原理</t>
+  </si>
+  <si>
+    <t>tomcat原理和模仿设计一个简单的tomcat容器</t>
+  </si>
+  <si>
+    <t>自定义注解使用和原理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,11 +143,169 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +318,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,9 +513,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -211,6 +765,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -219,22 +777,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -283,7 +881,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +916,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,190 +1119,205 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="48.75" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/阿里云服务器搭建/自己的服务器.xlsx
+++ b/阿里云服务器搭建/自己的服务器.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>2018年Java目标</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>自定义注解使用和原理</t>
+  </si>
+  <si>
+    <t>验证对象的参数不为空工具类</t>
   </si>
 </sst>
 </file>
@@ -127,11 +130,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +153,72 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,9 +226,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,115 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +289,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,73 +309,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,109 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,26 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,13 +527,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,30 +570,32 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -614,152 +603,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,10 +759,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1125,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1151,22 +1136,22 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1181,7 +1166,7 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1201,7 +1186,7 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1236,7 +1221,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1266,7 +1251,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1313,6 +1298,11 @@
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/阿里云服务器搭建/自己的服务器.xlsx
+++ b/阿里云服务器搭建/自己的服务器.xlsx
@@ -287,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,7 +592,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
     </row>

--- a/阿里云服务器搭建/自己的服务器.xlsx
+++ b/阿里云服务器搭建/自己的服务器.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\files4java\files\files4java\阿里云服务器搭建\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>2018年Java目标</t>
   </si>
@@ -129,43 +124,50 @@
     <t>验证对象的参数不为空工具类</t>
   </si>
   <si>
+    <t>java反射三个工具类</t>
+  </si>
+  <si>
     <t>linux自动备份,自动启动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>java反射三个工具类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>微信支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支付宝支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银行支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>solr批量导入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>solr批量自动定时导入数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>linux脚本什么用户操作拥有什么权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图是不是实时更新</t>
+  </si>
+  <si>
+    <t>多表联合查询和单表多次查询的效率问题</t>
+  </si>
+  <si>
+    <t>工具类创建规则,注意事项</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +183,151 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +340,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -209,9 +535,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -228,17 +796,61 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -287,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +934,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,250 +1137,265 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="42.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
     <col min="5" max="5" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="48.75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/阿里云服务器搭建/自己的服务器.xlsx
+++ b/阿里云服务器搭建/自己的服务器.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>2018年Java目标</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>工具类创建规则,注意事项</t>
+  </si>
+  <si>
+    <t>java8新特性</t>
   </si>
 </sst>
 </file>
@@ -163,9 +166,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -190,9 +193,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,115 +306,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,187 +345,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,22 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +565,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,21 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -633,16 +625,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1393,6 +1396,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/阿里云服务器搭建/自己的服务器.xlsx
+++ b/阿里云服务器搭建/自己的服务器.xlsx
@@ -165,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -194,22 +194,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,9 +260,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,91 +301,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,181 +351,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,45 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,16 +591,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,130 +657,130 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1232,12 +1232,12 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1332,12 +1332,12 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
